--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sl_SI.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sl_SI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5204">
   <si>
     <t>translation_group</t>
   </si>
@@ -15583,12 +15583,6 @@
   </si>
   <si>
     <t xml:space="preserve"> obvestil</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15975,17 +15969,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54632,18 +54626,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5188</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5189</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54653,10 +54639,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
       <c r="D2763" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54667,10 +54653,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
       <c r="D2764" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54681,10 +54667,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
       <c r="D2765" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54695,10 +54681,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
       <c r="D2766" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54709,10 +54695,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
       <c r="D2767" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54723,10 +54709,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
       <c r="D2768" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54737,10 +54723,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
       <c r="D2769" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54779,11 +54765,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="D2772" t="s">
-        <v>5205</v>
-      </c>
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sl_SI.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sl_SI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5880">
   <si>
     <t>translation_group</t>
   </si>
@@ -10109,7 +10109,7 @@
     <t>Seo Settings</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Izpolnite polja za največje rezultate pri iskanju vašega spletnega mesta v iskalnikih.</t>
@@ -17062,6 +17062,613 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Dobrodošli v Microweberju</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Uporabite Microweber za izdelavo svojega spletnega mesta, spletne trgovine ali spletnega dnevnika.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Ustvarjajte in urejajte vsebine, prodajajte prek spleta, upravljajte naročila in stranke.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Uporabljate to predlogo.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Sprememba bo vplivala samo na trenutno stran.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Dovoli več predlog</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Če dovolite več predlog, boste pri ustvarjanju novih strani lahko uporabili različne predloge.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Nastavitve spletnega mesta sistemske e-pošte</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Pošiljajte sporočila, povezana z novo registracijo, ponastavitvami gesla in drugimi sistemskimi funkcijami.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Z e-poštnega naslova</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Napr. Ime vašega spletnega mesta</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Splošne nastavitve ponudnika e-pošte</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Nastavite ponudnika e-pošte.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Splošni ponudnik e-pošte bo poslal vsa sporočila, povezana s spletno stranjo. Vključno s sistemskimi sporočili in sporočili s kontaktnimi obrazci.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logotip spletnega mesta</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Izberite logotip za svoje spletno mesto.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Naloži logotip</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Spletna stran Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Spreminjanje privzetega jezika ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Počistiti začasni pomnilnik..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Namestite večjezični modul</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Uporabniki se lahko registrirajo z začasnimi e-poštnimi sporočili, kot so - Mailinator, MailDrop, Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Registrirani uporabniki lahko samodejno prejmejo samodejno e-pošto od vas. Oglejte si nastavitve in objavite svoja sporočila.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Pošljite e-pošto o registraciji novega uporabnika skrbniškim uporabnikom</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Ali želite, da skrbniki prejemajo e-pošto, ko je registriran nov uporabnik?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber je brezplačen odprtokodni povleci in spusti graditelj spletnih strani in CMS. Je pod licenco MIT in uporabljamo PHP okvir Laravel</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Dostava na naslov</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Prevzem z naslova</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Globalne nastavitve</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Integracije e-pošte</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Nimate sistemske e-pošte in nastavitve SMTP.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Tu nastavite sistemske nastavitve.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Nastavitve globalnega kontaktnega obrazca</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Možnosti pošiljanja e-pošte</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Globalni pošiljatelj</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Uporabite nastavitve pošiljatelja po meri</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Za obrazce za splošne stike uporabite nastavitve pošiljatelja po meri.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Privzeto bomo uporabili e-poštne nastavitve sistema spletnega mesta.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Tu lahko spremenite sistemske nastavitve e-pošte.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Globalni sprejemniki</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Ko so oddani, pošljite podatke kontaktnih obrazcev globalnim sprejemnikom</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Na e-poštne naslove</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>E-poštni naslov sprejemnikov, ločenih s komo.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Če želite omogočiti razširitev PHP SOAP, se obrnite na svojega ponudnika gostovanja.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementi</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 meseca nazaj</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Odstrani logotip</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Odstranite favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Po meri</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Izdelki V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Časovnica</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Bela nalepka WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Število vidnih izjav</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Predloga modula se je spremenila</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Vsebinske različice</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Počistiti začasni pomnilnik</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Privzete postavitve in elementi</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Seznam puščic</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Preverjeni seznam</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Besedilo v ozadju</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Naslov z besedilom</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikona z besedilom</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Dva besedilna stolpca</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Dva besedilna stolpca z ikono in naslovom</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Slika z naslovom in besedilom</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Besedilo s sliko in naslovom</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Omogoči komentarje</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Nastavitve captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nastavite nastavitve captcha iz </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Dodajte / uredite polja obrazca z uporabo po meri</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Trenutne nastavitve obrazca za stik</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Ime kontaktnega obrazca</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Kako se imenuje ta kontaktni obrazec?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Sprejemniki</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Pošljite podatke kontaktnega obrazca sprejemnikom po meri, ko so predloženi</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Za trenutni kontaktni obrazec uporabite nastavitve sprejemnikov po meri.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Privzeto bomo uporabili globalne nastavitve obrazca za stike.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Tu lahko spremenite splošne nastavitve obrazca za stik.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Sporočilo samodejnega odgovora uporabniku</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Omogoči uporabniku samodejni odgovor na sporočilo</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Dovoli uporabnikom, da prejmejo "Hvala po e-pošti po naročnini."</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Samodejni odziv teme</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Samodejni odgovor na e-pošto, poslano nazaj uporabniku</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Samodejni odziv pošiljatelja po meri</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Za trenutni obrazec za stik uporabite nastavitve pošiljatelja po meri.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Samodejni odgovor z e-poštnega naslova</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Samodejni odgovor iz imena</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Samodejni odgovor na e-pošto</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Ko uporabnik prejme sporočilo s samodejnim odzivom, lahko odgovori nazaj na e-pošto.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Samodejni odgovor na e-poštne priloge</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Če želite priložiti og slike, jih morate naložiti v galerijo iz 'Dodaj medij'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Nimate še nobene objave</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Ustvari svojo prvo objavo zdaj.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Ustvari objavo</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Kako napisati opise izdelkov, ki prodajajo
+                                                    Ena najboljših stvari, ki jih lahko naredite za uspeh svoje trgovine, je, da nekaj časa vložite v pisanje odličnih opisov izdelkov. Navesti želite podrobne, a jedrnate informacije, ki bodo potencialne stranke privabile k nakupu.
+                                                    Razmišljajte kot potrošnik
+                                                    Razmislite o tem, kaj bi kot potrošnik želeli vedeti, in nato te značilnosti vključite v svoj opis. Za oblačila: materiali in prileganje. Za hrano: sestavine in kako je bila pripravljena. Oznake so vaši prijatelji, ko navajajo
+                                                   funkcije - poskusite
+                                                            vsako omejiti na 5-8 besed.</t>
   </si>
 </sst>
 </file>
@@ -17400,7 +18007,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67708,6 +68315,1757 @@
         <v>3604</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5681</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5682</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5683</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5684</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5688</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>642</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3111</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5877</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sl_SI.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sl_SI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6174">
   <si>
     <t>translation_group</t>
   </si>
@@ -17669,6 +17669,888 @@
                                                     Razmislite o tem, kaj bi kot potrošnik želeli vedeti, in nato te značilnosti vključite v svoj opis. Za oblačila: materiali in prileganje. Za hrano: sestavine in kako je bila pripravljena. Oznake so vaši prijatelji, ko navajajo
                                                    funkcije - poskusite
                                                             vsako omejiti na 5-8 besed.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Skrbniški jezik</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Omejitev</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Urejevalnik kode</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>naslovov</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Naslovi 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Naslovi 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Naslovi 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Naslovi 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Naslovi 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Naslovi 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Naslovi 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Naslovi 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>besedilni blok</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Besedilni blok 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Besedilni blok 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Besedilni blok 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Besedilni blok 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Besedilni blok 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Besedilni blok 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Besedilni blok 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Besedilni blok 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Besedilni blok 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Besedilni blok 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Besedilni blok 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Besedilni blok 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Besedilni blok 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Besedilni blok 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Besedilni blok 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Lastnosti 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Lastnosti 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Lastnosti 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Lastnosti 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>mreže</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>meni</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Meni - koža-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Meni - koža-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Meni - koža-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Meni - koža-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Meni - koža-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>noge</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Noge 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Noge 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Noge 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Noge 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>drugo</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Cena 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Privzete postavitve</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Tukaj ni vsebine</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Polja po meri so shranjena</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Obstoječa polja</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Izberite med obstoječimi spodnjimi polji</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dodajte nova polja</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Dodajte novo polje po meri s spodnjega seznama</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Vaša polja</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Seznam vaših dodanih polj po meri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ponovite navpično </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Družina pisav</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Prekrivanje</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Način mešanja</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Vsebnik</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Vrsta posode</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animacije</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Ponovno nalaganje slogov</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Povezave do</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Paket za predogled</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Uporaba</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Trenutni</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Preuredite</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>sistem</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Preusmeritev brskalnika</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integracija</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Samostojni posodobitev</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Za namestitev tega paketa potrebujete licenčni ključ</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Ta paket je premium in za njegovo namestitev morate imeti licenčni ključ</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Potrebujete licenčni ključ</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licenca aktivirana</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Ponovno nalaganje strani</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licenca ni aktivirana</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Sistemske posodobitve</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Preverite sistemske posodobitve</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Nazaj na seznam</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategorija mora imeti ime</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Ali je kategorija skrita?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Če to nastavite na DA, bo ta kategorija skrita na spletnem mestu</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Omemba</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Vaš nakupovalni voziček je prazen.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Rezultati najdeni</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Če izberete Odstotek v polju za izbiro, se ta samodejno izračuna iz cene in ponudbene cene izdelka.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Pojdite na blagajno</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Prikazovanje</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>rezultat(i)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Naslov strani - Desna drobtina</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Naslov strani - leva drobtina</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Pogoji uporabe</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Dostava in vračila</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Približno 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Približno 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Približno 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Domov 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Domov 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Za spremembo predloge morate klikniti gumb Uporabi predlogo</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Iskanje po kriterijih</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Datum, od</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Nastavite naročila od datuma</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Datum do</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Naročila nastavite na datum</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Znesek naročila od</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Pokažite naročilo z minimalnim zneskom</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Znesek naročila do</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Pokažite naročilo z največjim zneskom</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Iskanje po izdelkih ...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Iskanje po izdelkih</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Stanje plačila</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Brezplačno iskanje po telefonu, imenu, e-pošti itd...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Predložite ta merila</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Ponastavi filter</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Izvozi vse</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Izberite razvrščanje</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Datum naročila</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Novo &gt; Staro]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Staro &gt; Novo]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[visoko &gt; nizko]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Nizka &gt; Visoka]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Naročilo zaključeno</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>v vaši bazi podatkov so bili najdeni prevodi iz večjezičnega modula.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Opozorilo! Če spremenite privzeti jezik, lahko pokvarite prevode na vašem spletnem mestu.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Ali ste prepričani, da želite nadaljevati?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Opozorilo! Sprememba privzetega jezika bo morda pokvarila vaše spletno mesto.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Podrobnosti o pošiljanju</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>naročilo še ni zaključeno</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>naročilo je zaključeno</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Ustvarjeno pri</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Posodobljeno na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiter pogled </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Zamenjajte jezikovne vrednosti</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Prevodi so uvoženi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevodov ni bilo mogoče najti v bazi podatkov. Ali želite uvoziti prevode? </t>
   </si>
 </sst>
 </file>
@@ -17692,10 +18574,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17706,7 +18585,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18007,7 +18886,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70069,8 +70948,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5963</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5965</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6055</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5877</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6065</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6065</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6165</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6167</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6169</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6171</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70082,5 +73595,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sl_SI.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sl_SI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5986">
   <si>
     <t>translation_group</t>
   </si>
@@ -10112,7 +10112,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Izpolnite polja za največje rezultate pri iskanju vašega spletnega mesta v iskalnikih.</t>
+    <t>Izpolnite polja za najboljše rezultate pri iskanju vaše spletne strani v iskalnikih.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17067,19 +17067,19 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Dobrodošli v Microweberju</t>
+    <t>Dobrodošli v Microweber</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Uporabite Microweber za izdelavo svojega spletnega mesta, spletne trgovine ali spletnega dnevnika.</t>
+    <t>Uporabite Microweber za izdelavo svojega spletnega mesta, spletne trgovine ali bloga.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Ustvarjajte in urejajte vsebine, prodajajte prek spleta, upravljajte naročila in stranke.</t>
+    <t>Ustvarjajte in urejajte vsebino, prodajajte na spletu, upravljajte z naročili in strankami.</t>
   </si>
   <si>
     <t>Remove</t>
@@ -17109,7 +17109,7 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Če dovolite več predlog, boste pri ustvarjanju novih strani lahko uporabili različne predloge.</t>
+    <t>Če dovolite več predlog, boste lahko pri ustvarjanju novih strani uporabljali različne predloge.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
@@ -17121,19 +17121,19 @@
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Pošiljajte sporočila, povezana z novo registracijo, ponastavitvami gesla in drugimi sistemskimi funkcijami.</t>
+    <t>Dostava sporočil, povezanih z novo registracijo, ponastavitvijo gesla in drugimi funkcijami sistema.</t>
   </si>
   <si>
     <t>From e-mail address</t>
   </si>
   <si>
-    <t>Z e-poštnega naslova</t>
+    <t>Iz e-poštnega naslova</t>
   </si>
   <si>
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Napr. Ime vašega spletnega mesta</t>
+    <t>npr. Ime vašega spletnega mesta</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17151,19 +17151,19 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Splošni ponudnik e-pošte bo poslal vsa sporočila, povezana s spletno stranjo. Vključno s sistemskimi sporočili in sporočili s kontaktnimi obrazci.</t>
+    <t>Splošni ponudnik elektronske pošte bo dostavil vsa sporočila v zvezi s spletno stranjo. Vključno s sistemskimi sporočili in sporočili kontaktnega obrazca.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Logotip spletnega mesta</t>
+    <t>Logotip spletne strani</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Izberite logotip za svoje spletno mesto.</t>
+    <t>Izberite logotip za vaše spletno mesto.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17175,19 +17175,19 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Spletna stran Favicon</t>
+    <t>Favicon spletnega mesta</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Spreminjanje privzetega jezika ..</t>
+    <t>Spreminjanje privzetega jezika..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Počistiti začasni pomnilnik..</t>
+    <t>Počisti predpomnilnik..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
@@ -17199,7 +17199,7 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Uporabniki se lahko registrirajo z začasnimi e-poštnimi sporočili, kot so - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>Uporabniki se lahko registrirajo z začasnimi e-poštnimi naslovi, kot so - Mailinator, MailDrop, Guerrilla ...</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
@@ -17211,19 +17211,19 @@
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Pošljite e-pošto o registraciji novega uporabnika skrbniškim uporabnikom</t>
+    <t>Pošlji e-pošto ob registraciji novega uporabnika skrbniškim uporabnikom</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Ali želite, da skrbniki prejemajo e-pošto, ko je registriran nov uporabnik?</t>
+    <t>Ali želite, da administratorji ob registraciji novega uporabnika prejmejo e-pošto?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber je brezplačen odprtokodni povleci in spusti graditelj spletnih strani in CMS. Je pod licenco MIT in uporabljamo PHP okvir Laravel</t>
+    <t>Microweber je brezplačen odprtokodni ustvarjalec spletnih mest in CMS z vlečenjem in spuščanjem. Je pod licenco MIT in uporabljamo ogrodje Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17250,25 +17250,25 @@
     <t>E-mail Integrations</t>
   </si>
   <si>
-    <t>Integracije e-pošte</t>
+    <t>Integracije elektronske pošte</t>
   </si>
   <si>
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Nimate sistemske e-pošte in nastavitve SMTP.</t>
+    <t>Nimate nastavljene sistemske e-pošte in smtp.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Tu nastavite sistemske nastavitve.</t>
+    <t>Tukaj nastavite sistemske nastavitve.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Nastavitve globalnega kontaktnega obrazca</t>
+    <t>Globalne nastavitve kontaktnega obrazca</t>
   </si>
   <si>
     <t>E-mail sending options</t>
@@ -17292,19 +17292,19 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Za obrazce za splošne stike uporabite nastavitve pošiljatelja po meri.</t>
+    <t>Za globalne kontaktne obrazce uporabite nastavitve pošiljatelja po meri.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Privzeto bomo uporabili e-poštne nastavitve sistema spletnega mesta.</t>
+    <t>Privzeto bomo uporabili sistemske nastavitve spletne pošte.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>Tu lahko spremenite sistemske nastavitve e-pošte.</t>
+    <t>Tukaj lahko spremenite sistemske nastavitve elektronske pošte.</t>
   </si>
   <si>
     <t>Global Receivers</t>
@@ -17316,25 +17316,25 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Ko so oddani, pošljite podatke kontaktnih obrazcev globalnim sprejemnikom</t>
+    <t>Po oddaji pošlji podatke kontaktnih obrazcev globalnim prejemnikom</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>Na e-poštne naslove</t>
+    <t>Na elektronske naslove</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>E-poštni naslov sprejemnikov, ločenih s komo.</t>
+    <t>E-poštni naslovi prejemnikov ločeni z vejico.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Če želite omogočiti razširitev PHP SOAP, se obrnite na svojega ponudnika gostovanja.</t>
+    <t>Obrnite se na svojega ponudnika gostovanja, da omogoči razširitev PHP SOAP.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17358,7 +17358,7 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Odstranite favicon</t>
+    <t>Odstrani favicon</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17388,19 +17388,16 @@
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>Bela nalepka WHMCS</t>
+    <t>Bela oznaka WHMCS</t>
   </si>
   <si>
     <t>Number of the visible testimonials</t>
   </si>
   <si>
-    <t>Število vidnih izjav</t>
-  </si>
-  <si>
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>Predloga modula se je spremenila</t>
+    <t>Predloga modula je spremenjena</t>
   </si>
   <si>
     <t>Content versions</t>
@@ -17412,9 +17409,6 @@
     <t>Clear Cache</t>
   </si>
   <si>
-    <t>Počistiti začasni pomnilnik</t>
-  </si>
-  <si>
     <t>Default layouts and elements</t>
   </si>
   <si>
@@ -17430,7 +17424,7 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>Preverjeni seznam</t>
+    <t>Preverjen seznam</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17487,25 +17481,25 @@
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Nastavitve captcha</t>
+    <t>Nastavitve Captcha</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavite nastavitve captcha iz </t>
+    <t xml:space="preserve">Nastavite svoje nastavitve captcha iz </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
-    <t>Dodajte / uredite polja obrazca z uporabo po meri</t>
+    <t>Dodajte / uredite polja obrazca z uporabo polj po meri</t>
   </si>
   <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Trenutne nastavitve obrazca za stik</t>
+    <t>Trenutne nastavitve kontaktnega obrazca</t>
   </si>
   <si>
     <t>Contact form name</t>
@@ -17529,57 +17523,63 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Pošljite podatke kontaktnega obrazca sprejemnikom po meri, ko so predloženi</t>
+    <t>Po oddaji pošlji podatke kontaktnega obrazca prejemnikom po meri</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Za trenutni kontaktni obrazec uporabite nastavitve sprejemnikov po meri.</t>
+    <t>Uporabite nastavitve sprejemnikov po meri za trenutni kontaktni obrazec.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Privzeto bomo uporabili globalne nastavitve obrazca za stike.</t>
+    <t>Privzeto bomo uporabili globalne nastavitve kontaktnega obrazca.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>Tu lahko spremenite splošne nastavitve obrazca za stik.</t>
+    <t>Globalne nastavitve kontaktnega obrazca lahko spremenite tukaj.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Sporočilo samodejnega odgovora uporabniku</t>
+    <t>Samodejni odgovor na sporočilo uporabniku</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Omogoči uporabniku samodejni odgovor na sporočilo</t>
+    <t>Omogoči samodejni odgovor na sporočilo uporabniku</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Dovoli uporabnikom, da prejmejo "Hvala po e-pošti po naročnini."</t>
+    <t>Omogočite uporabnikom, da po naročnini prejmejo zahvalna e-poštna sporočila.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Samodejni odziv teme</t>
+    <t>Zadeva samodejnega odgovora</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Samodejni odzivniki vam omogočajo, da nastavite samodejne odgovore na dohodno e-pošto</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
+    <t>Samodejni odgovor na sporočilo</t>
+  </si>
+  <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
@@ -17595,7 +17595,7 @@
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Za trenutni obrazec za stik uporabite nastavitve pošiljatelja po meri.</t>
+    <t>Uporabite nastavitve pošiljatelja po meri za trenutni kontaktni obrazec.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
@@ -17607,7 +17607,7 @@
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Samodejni odgovor iz imena</t>
+    <t>Samodejni odgovor z imenom</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
@@ -17619,19 +17619,19 @@
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Ko uporabnik prejme sporočilo s samodejnim odzivom, lahko odgovori nazaj na e-pošto.</t>
+    <t>Ko uporabnik prejme sporočilo s samodejnim odgovorom, lahko odgovori na e-pošto.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Samodejni odgovor na e-poštne priloge</t>
+    <t>Samodejni odziv na e-poštne priloge</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Če želite priložiti og slike, jih morate naložiti v galerijo iz 'Dodaj medij'</t>
+    <t>Če želite priložiti og slike, jih morate naložiti v galerijo iz 'Dodaj predstavnost'</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
@@ -17643,7 +17643,7 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Ustvari svojo prvo objavo zdaj.</t>
+    <t>Takoj ustvarite svojo prvo objavo.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17664,17 +17664,68 @@
   </si>
   <si>
     <t>Kako napisati opise izdelkov, ki prodajajo
-                                                    Ena najboljših stvari, ki jih lahko naredite za uspeh svoje trgovine, je, da nekaj časa vložite v pisanje odličnih opisov izdelkov. Navesti želite podrobne, a jedrnate informacije, ki bodo potencialne stranke privabile k nakupu.
+                                                    Ena najboljših stvari, ki jih lahko naredite, da bo vaša trgovina uspešna, je, da vložite nekaj časa v pisanje odličnih opisov izdelkov. Zagotoviti želite podrobne, a jedrnate informacije, ki bodo potencialne stranke spodbudile k nakupu.
                                                     Razmišljajte kot potrošnik
-                                                    Razmislite o tem, kaj bi kot potrošnik želeli vedeti, in nato te značilnosti vključite v svoj opis. Za oblačila: materiali in prileganje. Za hrano: sestavine in kako je bila pripravljena. Oznake so vaši prijatelji, ko navajajo
-                                                   funkcije - poskusite
-                                                            vsako omejiti na 5-8 besed.</t>
+                                                    Razmislite o tem, kaj bi kot potrošnik želeli vedeti, nato vključite te lastnosti v svoj opis. Za oblačila: materiali in kroj. Za hrano: sestavine in način priprave. Oznake so vaši prijatelji, ko naštevate
+                                                   funkcije — poskusite
+                                                            vsako omejiti na 5–8 besed.</t>
   </si>
   <si>
     <t>Admin language</t>
   </si>
   <si>
-    <t>Skrbniški jezik</t>
+    <t>Administratorski jezik</t>
+  </si>
+  <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Dodaj podstran</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategorija izbrisana</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Vsebina izbrisana</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Iskanje kategorij</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Ustvari vsebino</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Kartica</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Kaj</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
   </si>
   <si>
     <t>Limit</t>
@@ -17683,337 +17734,211 @@
     <t>Omejitev</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Ali res želite izbrisati?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Nimate nobenega izdelka v</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Nazaj k</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>kategorije</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Polja po meri so shranjena</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Obstoječa polja</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Izberite med obstoječimi spodnjimi polji</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dodajte nova polja</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Dodajte novo polje po meri s spodnjega seznama</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Vaša polja</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Seznam vaših dodanih polj po meri</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Zaloga</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistem</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Preusmeritev brskalnika</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integracija</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Orodje za uvoz in izvoz</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Samostojni program za posodobitev</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Predogled paketa</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Uporaba</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Trenutno</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Prvi razred</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klikni in zberi</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Video ozadje</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Več jezikov</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Za uporabo več jezikov lahko aktivirate modul Multi-language</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Večjezični način</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktivirajte večjezični način, če želite imeti več jezikov za svojo vsebino.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Prevodi so uvoženi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevodov ni bilo mogoče najti v zbirki podatkov. Ali želite uvoziti prevode? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Vaš nakupovalni voziček je prazen.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Urejevalnik kode</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>naslovov</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Naslovi 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Naslovi 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Naslovi 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Naslovi 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Naslovi 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Naslovi 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Naslovi 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Naslovi 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>besedilni blok</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Besedilni blok 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Besedilni blok 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Besedilni blok 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Besedilni blok 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Besedilni blok 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Besedilni blok 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Besedilni blok 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Besedilni blok 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Besedilni blok 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Besedilni blok 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Besedilni blok 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Besedilni blok 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Besedilni blok 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Besedilni blok 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Besedilni blok 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Lastnosti 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Lastnosti 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Lastnosti 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Lastnosti 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>mreže</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>meni</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Meni - koža-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Meni - koža-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Meni - koža-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Meni - koža-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Meni - koža-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>noge</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Noge 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Noge 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Noge 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Noge 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>drugo</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Cena 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Privzete postavitve</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Tukaj ni vsebine</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Polja po meri so shranjena</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Obstoječa polja</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Izberite med obstoječimi spodnjimi polji</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dodajte nova polja</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Dodajte novo polje po meri s spodnjega seznama</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Vaša polja</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Seznam vaših dodanih polj po meri</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Nov uvoz</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18043,7 +17968,7 @@
     <t>Container</t>
   </si>
   <si>
-    <t>Vsebnik</t>
+    <t>Posoda</t>
   </si>
   <si>
     <t>Container type</t>
@@ -18062,495 +17987,6 @@
   </si>
   <si>
     <t>Ponovno nalaganje slogov</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Povezave do</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Paket za predogled</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Uporaba</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Trenutni</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Preuredite</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>sistem</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Preusmeritev brskalnika</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integracija</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Samostojni posodobitev</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Za namestitev tega paketa potrebujete licenčni ključ</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Ta paket je premium in za njegovo namestitev morate imeti licenčni ključ</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Potrebujete licenčni ključ</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licenca aktivirana</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Ponovno nalaganje strani</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licenca ni aktivirana</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Sistemske posodobitve</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Preverite sistemske posodobitve</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Nazaj na seznam</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategorija mora imeti ime</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Ali je kategorija skrita?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Če to nastavite na DA, bo ta kategorija skrita na spletnem mestu</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Omemba</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Vaš nakupovalni voziček je prazen.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Rezultati najdeni</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Če izberete Odstotek v polju za izbiro, se ta samodejno izračuna iz cene in ponudbene cene izdelka.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Pojdite na blagajno</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Prikazovanje</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>od</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>rezultat(i)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Naslov strani - Desna drobtina</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Naslov strani - leva drobtina</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Pogoji uporabe</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Dostava in vračila</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Približno 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Približno 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Približno 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Domov 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Domov 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Za spremembo predloge morate klikniti gumb Uporabi predlogo</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Iskanje po kriterijih</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Datum, od</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Nastavite naročila od datuma</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Datum do</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Naročila nastavite na datum</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Znesek naročila od</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Pokažite naročilo z minimalnim zneskom</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Znesek naročila do</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Pokažite naročilo z največjim zneskom</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Iskanje po izdelkih ...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Iskanje po izdelkih</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Stanje plačila</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Brezplačno iskanje po telefonu, imenu, e-pošti itd...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Predložite ta merila</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Ponastavi filter</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Izvozi vse</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Izberite razvrščanje</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Datum naročila</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Novo &gt; Staro]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Staro &gt; Novo]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[visoko &gt; nizko]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Nizka &gt; Visoka]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Naročilo zaključeno</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>v vaši bazi podatkov so bili najdeni prevodi iz večjezičnega modula.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Opozorilo! Če spremenite privzeti jezik, lahko pokvarite prevode na vašem spletnem mestu.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Ali ste prepričani, da želite nadaljevati?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Opozorilo! Sprememba privzetega jezika bo morda pokvarila vaše spletno mesto.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Podrobnosti o pošiljanju</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>naročilo še ni zaključeno</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>naročilo je zaključeno</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Ustvarjeno pri</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Posodobljeno na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiter pogled </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Zamenjajte jezikovne vrednosti</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Prevodi so uvoženi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevodov ni bilo mogoče najti v bazi podatkov. Ali želite uvoziti prevode? </t>
   </si>
 </sst>
 </file>
@@ -18886,7 +18322,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70177,7 +69613,7 @@
         <v>5790</v>
       </c>
       <c r="D3017" t="s">
-        <v>5791</v>
+        <v>3304</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70191,10 +69627,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D3018" t="s">
         <v>5792</v>
-      </c>
-      <c r="D3018" t="s">
-        <v>5793</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70208,10 +69644,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3019" t="s">
         <v>5794</v>
-      </c>
-      <c r="D3019" t="s">
-        <v>5795</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70225,10 +69661,10 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5796</v>
+        <v>5795</v>
       </c>
       <c r="D3020" t="s">
-        <v>5797</v>
+        <v>1560</v>
       </c>
       <c r="E3020" t="s">
         <v>8</v>
@@ -70242,10 +69678,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5798</v>
+        <v>5796</v>
       </c>
       <c r="D3021" t="s">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70259,10 +69695,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5800</v>
+        <v>5798</v>
       </c>
       <c r="D3022" t="s">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70276,10 +69712,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5802</v>
+        <v>5800</v>
       </c>
       <c r="D3023" t="s">
-        <v>5803</v>
+        <v>5801</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70293,10 +69729,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5804</v>
+        <v>5802</v>
       </c>
       <c r="D3024" t="s">
-        <v>5805</v>
+        <v>5803</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70310,10 +69746,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5806</v>
+        <v>5804</v>
       </c>
       <c r="D3025" t="s">
-        <v>5807</v>
+        <v>5805</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70327,10 +69763,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5808</v>
+        <v>5806</v>
       </c>
       <c r="D3026" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70344,10 +69780,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5810</v>
+        <v>5808</v>
       </c>
       <c r="D3027" t="s">
-        <v>5811</v>
+        <v>5809</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70361,10 +69797,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5812</v>
+        <v>5810</v>
       </c>
       <c r="D3028" t="s">
-        <v>5813</v>
+        <v>5811</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70378,10 +69814,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5814</v>
+        <v>5812</v>
       </c>
       <c r="D3029" t="s">
-        <v>5815</v>
+        <v>5813</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70395,10 +69831,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5816</v>
+        <v>5814</v>
       </c>
       <c r="D3030" t="s">
-        <v>5817</v>
+        <v>5815</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70412,7 +69848,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
       <c r="D3031" t="s">
         <v>1116</v>
@@ -70429,10 +69865,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5819</v>
+        <v>5817</v>
       </c>
       <c r="D3032" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70446,10 +69882,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="D3033" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70463,10 +69899,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5823</v>
+        <v>5821</v>
       </c>
       <c r="D3034" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70480,10 +69916,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5825</v>
+        <v>5823</v>
       </c>
       <c r="D3035" t="s">
-        <v>5826</v>
+        <v>5824</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70497,10 +69933,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5827</v>
+        <v>5825</v>
       </c>
       <c r="D3036" t="s">
-        <v>5828</v>
+        <v>5826</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70514,10 +69950,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="D3037" t="s">
-        <v>5830</v>
+        <v>5828</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70531,10 +69967,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5831</v>
+        <v>5829</v>
       </c>
       <c r="D3038" t="s">
-        <v>5832</v>
+        <v>5830</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70548,10 +69984,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5833</v>
+        <v>5831</v>
       </c>
       <c r="D3039" t="s">
-        <v>5834</v>
+        <v>5832</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70565,10 +70001,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5835</v>
+        <v>5833</v>
       </c>
       <c r="D3040" t="s">
-        <v>5836</v>
+        <v>5834</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70582,10 +70018,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5837</v>
+        <v>5835</v>
       </c>
       <c r="D3041" t="s">
-        <v>5838</v>
+        <v>5836</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70599,10 +70035,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="D3042" t="s">
-        <v>5840</v>
+        <v>5838</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70616,10 +70052,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5841</v>
+        <v>5839</v>
       </c>
       <c r="D3043" t="s">
-        <v>5842</v>
+        <v>5840</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70633,10 +70069,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5843</v>
+        <v>5841</v>
       </c>
       <c r="D3044" t="s">
-        <v>5844</v>
+        <v>5842</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70650,10 +70086,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5845</v>
+        <v>5843</v>
       </c>
       <c r="D3045" t="s">
-        <v>5846</v>
+        <v>5844</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70667,10 +70103,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5847</v>
+        <v>5845</v>
       </c>
       <c r="D3046" t="s">
-        <v>5848</v>
+        <v>5846</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70684,10 +70120,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5849</v>
+        <v>5847</v>
       </c>
       <c r="D3047" t="s">
-        <v>5850</v>
+        <v>5848</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70701,10 +70137,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5851</v>
+        <v>5849</v>
       </c>
       <c r="D3048" t="s">
-        <v>3111</v>
+        <v>5850</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70718,10 +70154,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3049" t="s">
         <v>5852</v>
-      </c>
-      <c r="D3049" t="s">
-        <v>3105</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70976,7 +70412,7 @@
         <v>5882</v>
       </c>
       <c r="D3064" t="s">
-        <v>5883</v>
+        <v>4226</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70990,10 +70426,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3065" t="s">
         <v>5884</v>
-      </c>
-      <c r="D3065" t="s">
-        <v>5885</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71007,7 +70443,7 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5886</v>
+        <v>5885</v>
       </c>
       <c r="D3066" t="s">
         <v>5886</v>
@@ -71112,7 +70548,7 @@
         <v>5897</v>
       </c>
       <c r="D3072" t="s">
-        <v>5898</v>
+        <v>5897</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71126,10 +70562,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="D3073" t="s">
-        <v>5900</v>
+        <v>5898</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71143,10 +70579,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5901</v>
+        <v>5899</v>
       </c>
       <c r="D3074" t="s">
-        <v>5902</v>
+        <v>5900</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71160,10 +70596,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="D3075" t="s">
-        <v>5904</v>
+        <v>5902</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71177,10 +70613,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5905</v>
+        <v>5903</v>
       </c>
       <c r="D3076" t="s">
-        <v>5906</v>
+        <v>5904</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71194,10 +70630,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5907</v>
+        <v>5905</v>
       </c>
       <c r="D3077" t="s">
-        <v>5908</v>
+        <v>5906</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71211,10 +70647,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5909</v>
+        <v>5907</v>
       </c>
       <c r="D3078" t="s">
-        <v>5910</v>
+        <v>5908</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71228,10 +70664,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5911</v>
+        <v>5909</v>
       </c>
       <c r="D3079" t="s">
-        <v>5912</v>
+        <v>5910</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71245,10 +70681,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5913</v>
+        <v>5911</v>
       </c>
       <c r="D3080" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71262,10 +70698,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="D3081" t="s">
-        <v>5916</v>
+        <v>5914</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71279,10 +70715,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5917</v>
+        <v>5915</v>
       </c>
       <c r="D3082" t="s">
-        <v>5918</v>
+        <v>5916</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71296,10 +70732,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5919</v>
+        <v>5917</v>
       </c>
       <c r="D3083" t="s">
-        <v>5920</v>
+        <v>5918</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71313,10 +70749,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5921</v>
+        <v>5919</v>
       </c>
       <c r="D3084" t="s">
-        <v>5922</v>
+        <v>5920</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71330,10 +70766,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5923</v>
+        <v>5921</v>
       </c>
       <c r="D3085" t="s">
-        <v>5924</v>
+        <v>5922</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71347,10 +70783,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D3086" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71364,10 +70800,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5927</v>
+        <v>5925</v>
       </c>
       <c r="D3087" t="s">
-        <v>5928</v>
+        <v>5926</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71381,10 +70817,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5929</v>
+        <v>5927</v>
       </c>
       <c r="D3088" t="s">
-        <v>5930</v>
+        <v>5927</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71398,10 +70834,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5931</v>
+        <v>5928</v>
       </c>
       <c r="D3089" t="s">
-        <v>5932</v>
+        <v>5929</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71415,10 +70851,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5933</v>
+        <v>5930</v>
       </c>
       <c r="D3090" t="s">
-        <v>5934</v>
+        <v>5931</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71432,10 +70868,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5935</v>
+        <v>5932</v>
       </c>
       <c r="D3091" t="s">
-        <v>5936</v>
+        <v>5933</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71449,10 +70885,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5937</v>
+        <v>5934</v>
       </c>
       <c r="D3092" t="s">
-        <v>1902</v>
+        <v>5935</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71466,10 +70902,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5938</v>
+        <v>5936</v>
       </c>
       <c r="D3093" t="s">
-        <v>5939</v>
+        <v>5937</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71483,10 +70919,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5940</v>
+        <v>5938</v>
       </c>
       <c r="D3094" t="s">
-        <v>5941</v>
+        <v>5938</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71500,10 +70936,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5942</v>
+        <v>5939</v>
       </c>
       <c r="D3095" t="s">
-        <v>5943</v>
+        <v>5940</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71517,10 +70953,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5944</v>
+        <v>5941</v>
       </c>
       <c r="D3096" t="s">
-        <v>5945</v>
+        <v>5942</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71534,10 +70970,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5946</v>
+        <v>5943</v>
       </c>
       <c r="D3097" t="s">
-        <v>5947</v>
+        <v>5943</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71551,10 +70987,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5948</v>
+        <v>5944</v>
       </c>
       <c r="D3098" t="s">
-        <v>5949</v>
+        <v>5945</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71568,10 +71004,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5950</v>
+        <v>5946</v>
       </c>
       <c r="D3099" t="s">
-        <v>5951</v>
+        <v>5947</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71585,10 +71021,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5952</v>
+        <v>5948</v>
       </c>
       <c r="D3100" t="s">
-        <v>5953</v>
+        <v>5949</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71602,10 +71038,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5954</v>
+        <v>5950</v>
       </c>
       <c r="D3101" t="s">
-        <v>5955</v>
+        <v>5951</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71619,10 +71055,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5956</v>
+        <v>5952</v>
       </c>
       <c r="D3102" t="s">
-        <v>5957</v>
+        <v>5953</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71636,10 +71072,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5958</v>
+        <v>5954</v>
       </c>
       <c r="D3103" t="s">
-        <v>5959</v>
+        <v>5955</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71653,10 +71089,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5960</v>
+        <v>5956</v>
       </c>
       <c r="D3104" t="s">
-        <v>5961</v>
+        <v>5957</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71670,10 +71106,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5962</v>
+        <v>5958</v>
       </c>
       <c r="D3105" t="s">
-        <v>5963</v>
+        <v>5959</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71687,10 +71123,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5964</v>
+        <v>5960</v>
       </c>
       <c r="D3106" t="s">
-        <v>5965</v>
+        <v>5961</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71704,10 +71140,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5966</v>
+        <v>5962</v>
       </c>
       <c r="D3107" t="s">
-        <v>5967</v>
+        <v>5963</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71721,10 +71157,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5968</v>
+        <v>5964</v>
       </c>
       <c r="D3108" t="s">
-        <v>5969</v>
+        <v>5965</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71737,11 +71173,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5970</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5971</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71754,11 +71190,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5967</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71772,10 +71208,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5972</v>
+        <v>5968</v>
       </c>
       <c r="D3111" t="s">
-        <v>5972</v>
+        <v>5969</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71789,10 +71225,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5973</v>
+        <v>5970</v>
       </c>
       <c r="D3112" t="s">
-        <v>5973</v>
+        <v>5971</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71806,10 +71242,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5974</v>
+        <v>5972</v>
       </c>
       <c r="D3113" t="s">
-        <v>2658</v>
+        <v>5973</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71823,10 +71259,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3114" t="s">
         <v>5975</v>
-      </c>
-      <c r="D3114" t="s">
-        <v>5976</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71840,10 +71276,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3115" t="s">
         <v>5977</v>
-      </c>
-      <c r="D3115" t="s">
-        <v>5978</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71857,10 +71293,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3116" t="s">
         <v>5979</v>
-      </c>
-      <c r="D3116" t="s">
-        <v>5980</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71874,10 +71310,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3117" t="s">
         <v>5981</v>
-      </c>
-      <c r="D3117" t="s">
-        <v>5982</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71891,10 +71327,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3118" t="s">
         <v>5983</v>
-      </c>
-      <c r="D3118" t="s">
-        <v>5984</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71908,1678 +71344,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3119" t="s">
         <v>5985</v>
       </c>
-      <c r="D3119" t="s">
-        <v>5986</v>
-      </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5987</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5988</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5989</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5990</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5991</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5992</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5993</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5994</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6033</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2706</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5877</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6065</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6065</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1801</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4321</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6165</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6166</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6167</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6168</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6169</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6170</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6171</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
